--- a/Collections/Испания/Испания погодовка+юбилейные 1937-2001.xlsx
+++ b/Collections/Испания/Испания погодовка+юбилейные 1937-2001.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Погодовка 1992-2001" sheetId="1" r:id="rId1"/>
+    <sheet name="Погодовка 1937-2001" sheetId="1" r:id="rId1"/>
     <sheet name="Юбилейные монеты 1980" sheetId="2" r:id="rId2"/>
     <sheet name="Юбилейные монеты 1990-1997" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -2005,9 +2005,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2016,7 +2013,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2024,8 +2020,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1"/>
@@ -2099,6 +2099,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 118"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -2417,10 +2465,10 @@
   <dimension ref="A1:P995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H79" sqref="H79"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9287,7 +9335,7 @@
   <dimension ref="A1:G928"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9312,328 +9360,328 @@
       <c r="D1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="18">
         <v>1980</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>0</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>0</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>0</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>0</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>0</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>0</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>0</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>0</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>0</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>0</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>0</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>0</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -13278,7 +13326,7 @@
   <dimension ref="A1:T993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13320,19 +13368,19 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>1993</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>1</v>
       </c>
       <c r="I2" s="1"/>
@@ -13349,17 +13397,17 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>1994</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>1</v>
       </c>
       <c r="I3" s="1"/>
@@ -13376,17 +13424,17 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>1995</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>2</v>
       </c>
       <c r="I4" s="1"/>
@@ -13403,17 +13451,17 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>1996</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>0</v>
       </c>
       <c r="I5" s="1"/>
@@ -13430,17 +13478,17 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>1997</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>0</v>
       </c>
       <c r="I6" s="1"/>
@@ -13457,17 +13505,17 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>1999</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>0</v>
       </c>
       <c r="I7" s="1"/>
@@ -13484,19 +13532,19 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>1993</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>0</v>
       </c>
       <c r="I8" s="1"/>
@@ -13513,17 +13561,17 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>1994</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>0</v>
       </c>
       <c r="I9" s="1"/>
@@ -13540,17 +13588,17 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>1995</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>0</v>
       </c>
       <c r="I10" s="1"/>
@@ -13567,17 +13615,17 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>1996</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
@@ -13594,17 +13642,17 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>1997</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
@@ -13621,19 +13669,19 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>1990</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>1</v>
       </c>
       <c r="I13" s="1"/>
@@ -13650,17 +13698,17 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>1991</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>1</v>
       </c>
       <c r="I14" s="1"/>
@@ -13677,17 +13725,17 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>1990</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>0</v>
       </c>
       <c r="I15" s="1"/>
@@ -13704,17 +13752,17 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>1991</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>0</v>
       </c>
       <c r="I16" s="1"/>
@@ -13731,17 +13779,17 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>1992</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>1</v>
       </c>
       <c r="I17" s="1"/>
@@ -13758,17 +13806,17 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>1992</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>0</v>
       </c>
       <c r="I18" s="1"/>
@@ -13785,17 +13833,17 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>1993</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
@@ -13812,17 +13860,17 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>1994</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>2</v>
       </c>
       <c r="I20" s="1"/>
@@ -13839,17 +13887,17 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>1995</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>0</v>
       </c>
       <c r="I21" s="1"/>
@@ -13866,17 +13914,17 @@
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>1996</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <v>1</v>
       </c>
       <c r="I22" s="1"/>
@@ -13893,17 +13941,17 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>1997</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <v>0</v>
       </c>
       <c r="I23" s="1"/>
@@ -13920,17 +13968,17 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="17" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>1998</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <v>0</v>
       </c>
       <c r="I24" s="1"/>
@@ -13947,17 +13995,17 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>1999</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <v>0</v>
       </c>
       <c r="I25" s="1"/>
@@ -13974,19 +14022,19 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>1990</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <v>0</v>
       </c>
       <c r="I26" s="1"/>
@@ -14003,17 +14051,17 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>1990</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="13">
         <v>0</v>
       </c>
       <c r="I27" s="1"/>
@@ -14030,17 +14078,17 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>1992</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="13">
         <v>1</v>
       </c>
       <c r="I28" s="1"/>
@@ -14057,17 +14105,17 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>1992</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <v>0</v>
       </c>
       <c r="I29" s="1"/>
@@ -14084,17 +14132,17 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>1993</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="13">
         <v>0</v>
       </c>
       <c r="I30" s="1"/>
@@ -14111,17 +14159,17 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>1994</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>0</v>
       </c>
       <c r="I31" s="1"/>
@@ -14138,17 +14186,17 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A32" s="15"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>1995</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <v>0</v>
       </c>
       <c r="I32" s="1"/>
@@ -14165,17 +14213,17 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>1996</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="13">
         <v>0</v>
       </c>
       <c r="I33" s="1"/>
@@ -14192,17 +14240,17 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>1997</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="13">
         <v>0</v>
       </c>
       <c r="I34" s="1"/>
@@ -14219,19 +14267,19 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>1993</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="13">
         <v>0</v>
       </c>
       <c r="I35" s="1"/>
@@ -14248,17 +14296,17 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A36" s="15"/>
-      <c r="B36" s="17" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>1994</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="13">
         <v>0</v>
       </c>
       <c r="I36" s="1"/>
@@ -14275,17 +14323,17 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <v>1995</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="13">
         <v>0</v>
       </c>
       <c r="I37" s="1"/>
@@ -14302,17 +14350,17 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="17" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>1996</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="13">
         <v>0</v>
       </c>
       <c r="I38" s="1"/>
@@ -14329,17 +14377,17 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="17" t="s">
+      <c r="A39" s="21"/>
+      <c r="B39" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <v>1997</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="13">
         <v>0</v>
       </c>
       <c r="I39" s="1"/>
@@ -14356,17 +14404,17 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A40" s="15"/>
-      <c r="B40" s="17" t="s">
+      <c r="A40" s="21"/>
+      <c r="B40" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <v>1999</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="13">
         <v>0</v>
       </c>
       <c r="I40" s="1"/>
@@ -14383,17 +14431,17 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A41" s="15"/>
-      <c r="B41" s="17" t="s">
+      <c r="A41" s="21"/>
+      <c r="B41" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <v>2001</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="13">
         <v>0</v>
       </c>
       <c r="I41" s="1"/>
@@ -14410,19 +14458,19 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <v>1990</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="13">
         <v>0</v>
       </c>
       <c r="I42" s="1"/>
@@ -14439,17 +14487,17 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A43" s="15"/>
-      <c r="B43" s="17" t="s">
+      <c r="A43" s="21"/>
+      <c r="B43" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="11">
         <v>1991</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="13">
         <v>0</v>
       </c>
       <c r="I43" s="1"/>
@@ -14466,17 +14514,17 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A44" s="15"/>
-      <c r="B44" s="17" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <v>1992</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="13">
         <v>0</v>
       </c>
       <c r="I44" s="1"/>
@@ -14493,17 +14541,17 @@
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A45" s="15"/>
-      <c r="B45" s="17" t="s">
+      <c r="A45" s="21"/>
+      <c r="B45" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="11">
         <v>1992</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="13">
         <v>0</v>
       </c>
       <c r="I45" s="1"/>
@@ -14520,17 +14568,17 @@
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A46" s="15"/>
-      <c r="B46" s="17" t="s">
+      <c r="A46" s="21"/>
+      <c r="B46" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <v>1992</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="13">
         <v>0</v>
       </c>
       <c r="I46" s="1"/>
@@ -14547,17 +14595,17 @@
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A47" s="15"/>
-      <c r="B47" s="17" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="11">
         <v>1993</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="13">
         <v>0</v>
       </c>
       <c r="I47" s="1"/>
@@ -14574,17 +14622,17 @@
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A48" s="15"/>
-      <c r="B48" s="17" t="s">
+      <c r="A48" s="21"/>
+      <c r="B48" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>1994</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="13">
         <v>0</v>
       </c>
       <c r="I48" s="1"/>
@@ -14601,17 +14649,17 @@
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A49" s="15"/>
-      <c r="B49" s="17" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="11">
         <v>1995</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="13">
         <v>0</v>
       </c>
       <c r="I49" s="1"/>
@@ -14628,17 +14676,17 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A50" s="15"/>
-      <c r="B50" s="17" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="11">
         <v>1996</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="13">
         <v>0</v>
       </c>
       <c r="I50" s="1"/>
@@ -14655,17 +14703,17 @@
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A51" s="15"/>
-      <c r="B51" s="17" t="s">
+      <c r="A51" s="21"/>
+      <c r="B51" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="11">
         <v>1997</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="13">
         <v>0</v>
       </c>
       <c r="I51" s="1"/>
